--- a/traits_and_envi.xlsx
+++ b/traits_and_envi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Project-1 dynamic drivers of leaf thermoregulation\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C51D1-F213-45A1-B1ED-8FF41AB1328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87219357-CA90-40E7-822B-3F5429AD6FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>photo_id</t>
   </si>
@@ -57,12 +63,6 @@
   </si>
   <si>
     <t>distance</t>
-  </si>
-  <si>
-    <t>under_airtemp</t>
-  </si>
-  <si>
-    <t>under_rh</t>
   </si>
   <si>
     <t>Tleafob2</t>
@@ -1176,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1189,7 +1189,7 @@
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1239,33 +1239,27 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>88</v>
       </c>
       <c r="U1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>37762</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>6.47</v>
@@ -1283,7 +1277,7 @@
         <v>1777.7550389999999</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -1292,51 +1286,45 @@
         <v>1.5</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>28.40036585</v>
       </c>
       <c r="L2">
-        <v>59.8</v>
+        <v>28.22988883</v>
       </c>
       <c r="M2">
-        <v>28.40036585</v>
+        <v>0.946726976</v>
       </c>
       <c r="N2">
-        <v>28.22988883</v>
+        <v>0.49885046599999999</v>
       </c>
       <c r="O2">
-        <v>0.946726976</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P2">
-        <v>0.49885046599999999</v>
+        <v>27.8884884</v>
       </c>
       <c r="Q2">
-        <v>4.6399999999999997</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="R2">
-        <v>27.8884884</v>
+        <v>0.95</v>
       </c>
       <c r="S2">
-        <v>6.4699999999999994E-2</v>
+        <v>111.04</v>
       </c>
       <c r="T2">
-        <v>0.95</v>
-      </c>
-      <c r="U2">
-        <v>111.04</v>
-      </c>
-      <c r="V2">
         <v>2.029888825</v>
       </c>
-      <c r="W2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>37764</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>5.4080000000000004</v>
@@ -1354,7 +1342,7 @@
         <v>2108.5531110000002</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -1363,51 +1351,45 @@
         <v>1.5</v>
       </c>
       <c r="K3">
-        <v>25.6</v>
+        <v>28.62929681</v>
       </c>
       <c r="L3">
-        <v>57.6</v>
+        <v>28.439783819999999</v>
       </c>
       <c r="M3">
-        <v>28.62929681</v>
+        <v>0.93068677</v>
       </c>
       <c r="N3">
-        <v>28.439783819999999</v>
+        <v>0.41529385600000002</v>
       </c>
       <c r="O3">
-        <v>0.93068677</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P3">
-        <v>0.41529385600000002</v>
+        <v>70.288723050000002</v>
       </c>
       <c r="Q3">
-        <v>4.6399999999999997</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="R3">
-        <v>70.288723050000002</v>
+        <v>0.95</v>
       </c>
       <c r="S3">
-        <v>5.4100000000000002E-2</v>
+        <v>82.42</v>
       </c>
       <c r="T3">
-        <v>0.95</v>
-      </c>
-      <c r="U3">
-        <v>82.42</v>
-      </c>
-      <c r="V3">
         <v>2.1397838199999999</v>
       </c>
-      <c r="W3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="U3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>37770</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>5.4288999999999996</v>
@@ -1425,7 +1407,7 @@
         <v>2137.189245</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>11</v>
@@ -1434,51 +1416,45 @@
         <v>1.5</v>
       </c>
       <c r="K4">
-        <v>25.8</v>
+        <v>29.63640706</v>
       </c>
       <c r="L4">
-        <v>58.7</v>
+        <v>29.436110200000002</v>
       </c>
       <c r="M4">
-        <v>29.63640706</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="N4">
-        <v>29.436110200000002</v>
+        <v>0.41324053799999999</v>
       </c>
       <c r="O4">
-        <v>0.84150000000000003</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P4">
-        <v>0.41324053799999999</v>
+        <v>66.839441539999996</v>
       </c>
       <c r="Q4">
-        <v>4.6399999999999997</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="R4">
-        <v>66.839441539999996</v>
+        <v>0.95</v>
       </c>
       <c r="S4">
-        <v>5.4300000000000001E-2</v>
+        <v>72.8</v>
       </c>
       <c r="T4">
-        <v>0.95</v>
-      </c>
-      <c r="U4">
-        <v>72.8</v>
-      </c>
-      <c r="V4">
         <v>2.2361101969999999</v>
       </c>
-      <c r="W4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>37772</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>8.8000000000000007</v>
@@ -1496,7 +1472,7 @@
         <v>1737.4237450000001</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1505,51 +1481,45 @@
         <v>1.5</v>
       </c>
       <c r="K5">
-        <v>26.2</v>
+        <v>30.665012170000001</v>
       </c>
       <c r="L5">
-        <v>57.2</v>
+        <v>30.226978290000002</v>
       </c>
       <c r="M5">
-        <v>30.665012170000001</v>
+        <v>0.93895915500000005</v>
       </c>
       <c r="N5">
-        <v>30.226978290000002</v>
+        <v>0.48950029099999998</v>
       </c>
       <c r="O5">
-        <v>0.93895915500000005</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P5">
-        <v>0.48950029099999998</v>
+        <v>54.644466629999997</v>
       </c>
       <c r="Q5">
-        <v>4.6399999999999997</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="R5">
-        <v>54.644466629999997</v>
+        <v>0.95</v>
       </c>
       <c r="S5">
-        <v>8.7999999999999995E-2</v>
+        <v>91.76</v>
       </c>
       <c r="T5">
-        <v>0.95</v>
-      </c>
-      <c r="U5">
-        <v>91.76</v>
-      </c>
-      <c r="V5">
         <v>3.2269782920000001</v>
       </c>
-      <c r="W5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="U5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>37776</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>4.03</v>
@@ -1567,7 +1537,7 @@
         <v>1719.1988759999999</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>16</v>
@@ -1576,51 +1546,45 @@
         <v>1.5</v>
       </c>
       <c r="K6">
-        <v>26.4</v>
+        <v>28.248981229999998</v>
       </c>
       <c r="L6">
-        <v>57.5</v>
+        <v>28.22912307</v>
       </c>
       <c r="M6">
-        <v>28.248981229999998</v>
+        <v>0.93102045</v>
       </c>
       <c r="N6">
-        <v>28.22912307</v>
+        <v>0.47670484600000002</v>
       </c>
       <c r="O6">
-        <v>0.93102045</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P6">
-        <v>0.47670484600000002</v>
+        <v>67.961707799999999</v>
       </c>
       <c r="Q6">
-        <v>4.6399999999999997</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="R6">
-        <v>67.961707799999999</v>
+        <v>0.95</v>
       </c>
       <c r="S6">
-        <v>4.0300000000000002E-2</v>
+        <v>94.98</v>
       </c>
       <c r="T6">
-        <v>0.95</v>
-      </c>
-      <c r="U6">
-        <v>94.98</v>
-      </c>
-      <c r="V6">
         <v>0.72912306699999996</v>
       </c>
-      <c r="W6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="U6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>37816</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>8.6300000000000008</v>
@@ -1638,7 +1602,7 @@
         <v>1735.1545445200002</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>41</v>
@@ -1647,51 +1611,45 @@
         <v>1.5</v>
       </c>
       <c r="K7">
-        <v>22.3</v>
+        <v>27.544727250000001</v>
       </c>
       <c r="L7">
-        <v>58.6</v>
+        <v>27.34513385</v>
       </c>
       <c r="M7">
-        <v>27.544727250000001</v>
+        <v>0.94652236700000003</v>
       </c>
       <c r="N7">
-        <v>27.34513385</v>
+        <v>0.47953329900000002</v>
       </c>
       <c r="O7">
-        <v>0.94652236700000003</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P7">
-        <v>0.47953329900000002</v>
+        <v>85.665180739999997</v>
       </c>
       <c r="Q7">
-        <v>4.6399999999999997</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="R7">
-        <v>85.665180739999997</v>
+        <v>0.95</v>
       </c>
       <c r="S7">
-        <v>8.6300000000000002E-2</v>
+        <v>90.37</v>
       </c>
       <c r="T7">
-        <v>0.95</v>
-      </c>
-      <c r="U7">
-        <v>90.37</v>
-      </c>
-      <c r="V7">
         <v>2.1451338459999998</v>
       </c>
-      <c r="W7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="U7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>37824</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>7.62</v>
@@ -1709,7 +1667,7 @@
         <v>2137.9756860000002</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>44</v>
@@ -1718,51 +1676,45 @@
         <v>1.5</v>
       </c>
       <c r="K8">
-        <v>23.8</v>
+        <v>33.312349279999999</v>
       </c>
       <c r="L8">
-        <v>51.9</v>
+        <v>31.750826799999999</v>
       </c>
       <c r="M8">
-        <v>33.312349279999999</v>
+        <v>0.93186456500000003</v>
       </c>
       <c r="N8">
-        <v>31.750826799999999</v>
+        <v>0.515034306</v>
       </c>
       <c r="O8">
-        <v>0.93186456500000003</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P8">
-        <v>0.515034306</v>
+        <v>25.33250992</v>
       </c>
       <c r="Q8">
-        <v>4.6399999999999997</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="R8">
-        <v>25.33250992</v>
+        <v>0.95</v>
       </c>
       <c r="S8">
-        <v>7.6200000000000004E-2</v>
+        <v>63.46</v>
       </c>
       <c r="T8">
-        <v>0.95</v>
-      </c>
-      <c r="U8">
-        <v>63.46</v>
-      </c>
-      <c r="V8">
         <v>5.6508268040000003</v>
       </c>
-      <c r="W8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="U8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>37836</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>4.58</v>
@@ -1780,60 +1732,54 @@
         <v>2045.81366</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <v>1.5</v>
       </c>
       <c r="K9">
-        <v>25</v>
+        <v>32.323976500000001</v>
       </c>
       <c r="L9">
-        <v>37.700000000000003</v>
+        <v>31.125550820000001</v>
       </c>
       <c r="M9">
-        <v>32.323976500000001</v>
+        <v>0.94475548200000004</v>
       </c>
       <c r="N9">
-        <v>31.125550820000001</v>
+        <v>0.46487746499999999</v>
       </c>
       <c r="O9">
-        <v>0.94475548200000004</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P9">
-        <v>0.46487746499999999</v>
+        <v>30.660065530000001</v>
       </c>
       <c r="Q9">
-        <v>4.6399999999999997</v>
+        <v>4.58E-2</v>
       </c>
       <c r="R9">
-        <v>30.660065530000001</v>
+        <v>0.95</v>
       </c>
       <c r="S9">
-        <v>4.58E-2</v>
+        <v>73.040000000000006</v>
       </c>
       <c r="T9">
-        <v>0.95</v>
-      </c>
-      <c r="U9">
-        <v>73.040000000000006</v>
-      </c>
-      <c r="V9">
         <v>5.0255508210000004</v>
       </c>
-      <c r="W9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="U9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>37844</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>4.0999999999999996</v>
@@ -1851,60 +1797,54 @@
         <v>1554.2027459999999</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>1.5</v>
       </c>
       <c r="K10">
-        <v>25.2</v>
+        <v>27.801054990000001</v>
       </c>
       <c r="L10">
-        <v>39.6</v>
+        <v>27.720008929999999</v>
       </c>
       <c r="M10">
-        <v>27.801054990000001</v>
+        <v>0.92398141499999997</v>
       </c>
       <c r="N10">
-        <v>27.720008929999999</v>
+        <v>0.48688394200000001</v>
       </c>
       <c r="O10">
-        <v>0.92398141499999997</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P10">
-        <v>0.48688394200000001</v>
+        <v>60.560516710000002</v>
       </c>
       <c r="Q10">
-        <v>4.6399999999999997</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="R10">
-        <v>60.560516710000002</v>
+        <v>0.95</v>
       </c>
       <c r="S10">
-        <v>4.1000000000000002E-2</v>
+        <v>97.2</v>
       </c>
       <c r="T10">
-        <v>0.95</v>
-      </c>
-      <c r="U10">
-        <v>97.2</v>
-      </c>
-      <c r="V10">
         <v>1.4200089259999999</v>
       </c>
-      <c r="W10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="U10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>37876</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>5.4109999999999996</v>
@@ -1922,60 +1862,54 @@
         <v>2137.9756860000002</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11">
         <v>1.5</v>
       </c>
       <c r="K11">
-        <v>24.7</v>
+        <v>29.483055539999999</v>
       </c>
       <c r="L11">
-        <v>50.6</v>
+        <v>29.13940586</v>
       </c>
       <c r="M11">
-        <v>29.483055539999999</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="N11">
-        <v>29.13940586</v>
+        <v>0.38826500400000002</v>
       </c>
       <c r="O11">
-        <v>0.87329999999999997</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P11">
-        <v>0.38826500400000002</v>
+        <v>64.848193960000003</v>
       </c>
       <c r="Q11">
-        <v>4.6399999999999997</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="R11">
-        <v>64.848193960000003</v>
+        <v>0.95</v>
       </c>
       <c r="S11">
-        <v>5.4100000000000002E-2</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="T11">
-        <v>0.95</v>
-      </c>
-      <c r="U11">
-        <v>67.459999999999994</v>
-      </c>
-      <c r="V11">
         <v>2.8394058609999999</v>
       </c>
-      <c r="W11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="U11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>37884</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>5.4290000000000003</v>
@@ -1993,7 +1927,7 @@
         <v>2131.5603660000002</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -2002,51 +1936,45 @@
         <v>1.5</v>
       </c>
       <c r="K12">
-        <v>24.9</v>
+        <v>29.626853910000001</v>
       </c>
       <c r="L12">
-        <v>52.8</v>
+        <v>29.459476089999999</v>
       </c>
       <c r="M12">
-        <v>29.626853910000001</v>
+        <v>0.94040369099999999</v>
       </c>
       <c r="N12">
-        <v>29.459476089999999</v>
+        <v>0.41091377600000001</v>
       </c>
       <c r="O12">
-        <v>0.94040369099999999</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P12">
-        <v>0.41091377600000001</v>
+        <v>63.066283689999999</v>
       </c>
       <c r="Q12">
-        <v>4.6399999999999997</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="R12">
-        <v>63.066283689999999</v>
+        <v>0.95</v>
       </c>
       <c r="S12">
-        <v>5.4300000000000001E-2</v>
+        <v>80.010000000000005</v>
       </c>
       <c r="T12">
-        <v>0.95</v>
-      </c>
-      <c r="U12">
-        <v>80.010000000000005</v>
-      </c>
-      <c r="V12">
         <v>2.0594760860000001</v>
       </c>
-      <c r="W12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="U12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>37902</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2064,7 +1992,7 @@
         <v>1653.5899099999999</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -2073,51 +2001,45 @@
         <v>1.5</v>
       </c>
       <c r="K13">
-        <v>25.4</v>
+        <v>27.81065113</v>
       </c>
       <c r="L13">
-        <v>48.1</v>
+        <v>27.797242789999999</v>
       </c>
       <c r="M13">
-        <v>27.81065113</v>
+        <v>0.91915792699999999</v>
       </c>
       <c r="N13">
-        <v>27.797242789999999</v>
+        <v>0.45224272100000001</v>
       </c>
       <c r="O13">
-        <v>0.91915792699999999</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P13">
-        <v>0.45224272100000001</v>
+        <v>60.025183689999999</v>
       </c>
       <c r="Q13">
-        <v>4.6399999999999997</v>
+        <v>0.05</v>
       </c>
       <c r="R13">
-        <v>60.025183689999999</v>
+        <v>0.95</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>88.74</v>
       </c>
       <c r="T13">
-        <v>0.95</v>
-      </c>
-      <c r="U13">
-        <v>88.74</v>
-      </c>
-      <c r="V13">
         <v>0.59724278500000005</v>
       </c>
-      <c r="W13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="U13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>37904</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>6.49</v>
@@ -2135,7 +2057,7 @@
         <v>1587.3519670000001</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14">
         <v>8</v>
@@ -2144,51 +2066,45 @@
         <v>1.5</v>
       </c>
       <c r="K14">
-        <v>25.4</v>
+        <v>29.570108149999999</v>
       </c>
       <c r="L14">
-        <v>44.8</v>
+        <v>29.32900394</v>
       </c>
       <c r="M14">
-        <v>29.570108149999999</v>
+        <v>0.91660611599999997</v>
       </c>
       <c r="N14">
-        <v>29.32900394</v>
+        <v>0.42704349000000003</v>
       </c>
       <c r="O14">
-        <v>0.91660611599999997</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P14">
-        <v>0.42704349000000003</v>
+        <v>72.403856279999999</v>
       </c>
       <c r="Q14">
-        <v>4.6399999999999997</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="R14">
-        <v>72.403856279999999</v>
+        <v>0.95</v>
       </c>
       <c r="S14">
-        <v>6.4899999999999999E-2</v>
+        <v>73.05</v>
       </c>
       <c r="T14">
-        <v>0.95</v>
-      </c>
-      <c r="U14">
-        <v>73.05</v>
-      </c>
-      <c r="V14">
         <v>2.4290039409999999</v>
       </c>
-      <c r="W14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="U14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>37936</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>4.5599999999999996</v>
@@ -2206,60 +2122,54 @@
         <v>1612.0990048000001</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.5</v>
       </c>
       <c r="K15">
-        <v>20.9</v>
+        <v>24.653582180000001</v>
       </c>
       <c r="L15">
-        <v>62.1</v>
+        <v>24.528851809999999</v>
       </c>
       <c r="M15">
-        <v>24.653582180000001</v>
+        <v>0.94029759499999999</v>
       </c>
       <c r="N15">
-        <v>24.528851809999999</v>
+        <v>0.43742715799999998</v>
       </c>
       <c r="O15">
-        <v>0.94029759499999999</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P15">
-        <v>0.43742715799999998</v>
+        <v>40.633695799999998</v>
       </c>
       <c r="Q15">
-        <v>4.6399999999999997</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="R15">
-        <v>40.633695799999998</v>
+        <v>0.95</v>
       </c>
       <c r="S15">
-        <v>4.5600000000000002E-2</v>
+        <v>80.39</v>
       </c>
       <c r="T15">
-        <v>0.95</v>
-      </c>
-      <c r="U15">
-        <v>80.39</v>
-      </c>
-      <c r="V15">
         <v>1.6288518089999999</v>
       </c>
-      <c r="W15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="U15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>37944</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>4.13</v>
@@ -2277,7 +2187,7 @@
         <v>2115.9343979999999</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -2286,51 +2196,45 @@
         <v>1.5</v>
       </c>
       <c r="K16">
-        <v>22.1</v>
+        <v>28.148765690000001</v>
       </c>
       <c r="L16">
-        <v>59.4</v>
+        <v>27.347637290000002</v>
       </c>
       <c r="M16">
-        <v>28.148765690000001</v>
+        <v>0.93132397899999997</v>
       </c>
       <c r="N16">
-        <v>27.347637290000002</v>
+        <v>0.49662625999999999</v>
       </c>
       <c r="O16">
-        <v>0.93132397899999997</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P16">
-        <v>0.49662625999999999</v>
+        <v>75.898032729999997</v>
       </c>
       <c r="Q16">
-        <v>4.6399999999999997</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="R16">
-        <v>75.898032729999997</v>
+        <v>0.95</v>
       </c>
       <c r="S16">
-        <v>4.1300000000000003E-2</v>
+        <v>121.07</v>
       </c>
       <c r="T16">
-        <v>0.95</v>
-      </c>
-      <c r="U16">
-        <v>121.07</v>
-      </c>
-      <c r="V16">
         <v>3.9476372909999999</v>
       </c>
-      <c r="W16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="U16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>37952</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>7.56</v>
@@ -2348,7 +2252,7 @@
         <v>2138.2896799999999</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17">
         <v>45</v>
@@ -2357,51 +2261,45 @@
         <v>1.5</v>
       </c>
       <c r="K17">
-        <v>23.6</v>
+        <v>28.699392159999999</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>28.44549417</v>
       </c>
       <c r="M17">
-        <v>28.699392159999999</v>
+        <v>0.86080000000000001</v>
       </c>
       <c r="N17">
-        <v>28.44549417</v>
+        <v>0.53705926000000004</v>
       </c>
       <c r="O17">
-        <v>0.86080000000000001</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P17">
-        <v>0.53705926000000004</v>
+        <v>77.025308240000001</v>
       </c>
       <c r="Q17">
-        <v>4.6399999999999997</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="R17">
-        <v>77.025308240000001</v>
+        <v>0.95</v>
       </c>
       <c r="S17">
-        <v>7.5600000000000001E-2</v>
+        <v>113.47</v>
       </c>
       <c r="T17">
-        <v>0.95</v>
-      </c>
-      <c r="U17">
-        <v>113.47</v>
-      </c>
-      <c r="V17">
         <v>2.4454941680000002</v>
       </c>
-      <c r="W17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="U17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>37954</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2419,7 +2317,7 @@
         <v>1710.425336</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -2428,51 +2326,45 @@
         <v>1.5</v>
       </c>
       <c r="K18">
-        <v>23.7</v>
+        <v>24.38688659</v>
       </c>
       <c r="L18">
-        <v>47.4</v>
+        <v>24.3854544</v>
       </c>
       <c r="M18">
-        <v>24.38688659</v>
+        <v>0.92625301000000004</v>
       </c>
       <c r="N18">
-        <v>24.3854544</v>
+        <v>0.46823474999999998</v>
       </c>
       <c r="O18">
-        <v>0.92625301000000004</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P18">
-        <v>0.46823474999999998</v>
+        <v>59.96495324</v>
       </c>
       <c r="Q18">
-        <v>4.6399999999999997</v>
+        <v>0.04</v>
       </c>
       <c r="R18">
-        <v>59.96495324</v>
+        <v>0.95</v>
       </c>
       <c r="S18">
-        <v>0.04</v>
+        <v>95.17</v>
       </c>
       <c r="T18">
-        <v>0.95</v>
-      </c>
-      <c r="U18">
-        <v>95.17</v>
-      </c>
-      <c r="V18">
         <v>0.18545440199999999</v>
       </c>
-      <c r="W18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="U18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>37966</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2490,7 +2382,7 @@
         <v>1561.391674</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2499,51 +2391,45 @@
         <v>1.5</v>
       </c>
       <c r="K19">
-        <v>24.8</v>
+        <v>26.946313</v>
       </c>
       <c r="L19">
-        <v>48.6</v>
+        <v>26.935236979999999</v>
       </c>
       <c r="M19">
-        <v>26.946313</v>
+        <v>0.90812608699999997</v>
       </c>
       <c r="N19">
-        <v>26.935236979999999</v>
+        <v>0.48530941</v>
       </c>
       <c r="O19">
-        <v>0.90812608699999997</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P19">
-        <v>0.48530941</v>
+        <v>59.6894603</v>
       </c>
       <c r="Q19">
-        <v>4.6399999999999997</v>
+        <v>0.04</v>
       </c>
       <c r="R19">
-        <v>59.6894603</v>
+        <v>0.95</v>
       </c>
       <c r="S19">
-        <v>0.04</v>
+        <v>100.16</v>
       </c>
       <c r="T19">
-        <v>0.95</v>
-      </c>
-      <c r="U19">
-        <v>100.16</v>
-      </c>
-      <c r="V19">
         <v>0.53523697999999997</v>
       </c>
-      <c r="W19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="U19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
         <v>38008</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>4.8499999999999996</v>
@@ -2561,7 +2447,7 @@
         <v>1482.897275</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I20">
         <v>34</v>
@@ -2570,51 +2456,45 @@
         <v>1.5</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>33.137072459999999</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>32.729044199999997</v>
       </c>
       <c r="M20">
-        <v>33.137072459999999</v>
+        <v>0.93117778200000001</v>
       </c>
       <c r="N20">
-        <v>32.729044199999997</v>
+        <v>0.44994051400000001</v>
       </c>
       <c r="O20">
-        <v>0.93117778200000001</v>
+        <v>3.37</v>
       </c>
       <c r="P20">
-        <v>0.44994051400000001</v>
+        <v>35.76106497</v>
       </c>
       <c r="Q20">
-        <v>3.37</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="R20">
-        <v>35.76106497</v>
+        <v>0.95</v>
       </c>
       <c r="S20">
-        <v>4.8499999999999995E-2</v>
+        <v>54.19</v>
       </c>
       <c r="T20">
-        <v>0.95</v>
-      </c>
-      <c r="U20">
-        <v>54.19</v>
-      </c>
-      <c r="V20">
         <v>3.2690442040000001</v>
       </c>
-      <c r="W20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="U20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
         <v>38010</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>10.199999999999999</v>
@@ -2632,7 +2512,7 @@
         <v>1486.820616</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21">
         <v>24</v>
@@ -2641,51 +2521,45 @@
         <v>1.5</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>35.775487409999997</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>34.660607249999998</v>
       </c>
       <c r="M21">
-        <v>35.775487409999997</v>
+        <v>0.93544402400000004</v>
       </c>
       <c r="N21">
-        <v>34.660607249999998</v>
+        <v>0.42159656000000001</v>
       </c>
       <c r="O21">
-        <v>0.93544402400000004</v>
+        <v>3.37</v>
       </c>
       <c r="P21">
-        <v>0.42159656000000001</v>
+        <v>29.07198155</v>
       </c>
       <c r="Q21">
-        <v>3.37</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="R21">
-        <v>29.07198155</v>
+        <v>0.95</v>
       </c>
       <c r="S21">
-        <v>0.10199999999999999</v>
+        <v>101.73</v>
       </c>
       <c r="T21">
-        <v>0.95</v>
-      </c>
-      <c r="U21">
-        <v>101.73</v>
-      </c>
-      <c r="V21">
         <v>5.2006072469999998</v>
       </c>
-      <c r="W21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="U21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>38018</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>4.8600000000000003</v>
@@ -2703,7 +2577,7 @@
         <v>1474.5246279999999</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I22">
         <v>72</v>
@@ -2712,51 +2586,45 @@
         <v>1.5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.117550600000001</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>33.29498152</v>
       </c>
       <c r="M22">
-        <v>34.117550600000001</v>
+        <v>0.88821813999999999</v>
       </c>
       <c r="N22">
-        <v>33.29498152</v>
+        <v>0.42910862399999999</v>
       </c>
       <c r="O22">
-        <v>0.88821813999999999</v>
+        <v>3.37</v>
       </c>
       <c r="P22">
-        <v>0.42910862399999999</v>
+        <v>25.788759880000001</v>
       </c>
       <c r="Q22">
-        <v>3.37</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="R22">
-        <v>25.788759880000001</v>
+        <v>0.95</v>
       </c>
       <c r="S22">
-        <v>4.8600000000000004E-2</v>
+        <v>64.11</v>
       </c>
       <c r="T22">
-        <v>0.95</v>
-      </c>
-      <c r="U22">
-        <v>64.11</v>
-      </c>
-      <c r="V22">
         <v>4.4749815159999997</v>
       </c>
-      <c r="W22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="U22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>38022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -2774,7 +2642,7 @@
         <v>1463.814255</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I23">
         <v>21</v>
@@ -2783,51 +2651,45 @@
         <v>1.5</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>33.6093458</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>32.979938079999997</v>
       </c>
       <c r="M23">
-        <v>33.6093458</v>
+        <v>0.951636437</v>
       </c>
       <c r="N23">
-        <v>32.979938079999997</v>
+        <v>0.56075065700000004</v>
       </c>
       <c r="O23">
-        <v>0.951636437</v>
+        <v>3.37</v>
       </c>
       <c r="P23">
-        <v>0.56075065700000004</v>
+        <v>60.670370429999998</v>
       </c>
       <c r="Q23">
-        <v>3.37</v>
+        <v>0.1</v>
       </c>
       <c r="R23">
-        <v>60.670370429999998</v>
+        <v>0.95</v>
       </c>
       <c r="S23">
-        <v>0.1</v>
+        <v>136.69</v>
       </c>
       <c r="T23">
-        <v>0.95</v>
-      </c>
-      <c r="U23">
-        <v>136.69</v>
-      </c>
-      <c r="V23">
         <v>3.9699380780000002</v>
       </c>
-      <c r="W23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="U23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>38024</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>8.57</v>
@@ -2845,7 +2707,7 @@
         <v>1464.4534369999999</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24">
         <v>20</v>
@@ -2854,51 +2716,45 @@
         <v>1.5</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>35.377342820000003</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>34.231325300000002</v>
       </c>
       <c r="M24">
-        <v>35.377342820000003</v>
+        <v>0.94300202300000002</v>
       </c>
       <c r="N24">
-        <v>34.231325300000002</v>
+        <v>0.53444723000000005</v>
       </c>
       <c r="O24">
-        <v>0.94300202300000002</v>
+        <v>3.37</v>
       </c>
       <c r="P24">
-        <v>0.53444723000000005</v>
+        <v>47.266517309999998</v>
       </c>
       <c r="Q24">
-        <v>3.37</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="R24">
-        <v>47.266517309999998</v>
+        <v>0.95</v>
       </c>
       <c r="S24">
-        <v>8.5699999999999998E-2</v>
+        <v>126.73</v>
       </c>
       <c r="T24">
-        <v>0.95</v>
-      </c>
-      <c r="U24">
-        <v>126.73</v>
-      </c>
-      <c r="V24">
         <v>5.2213253030000004</v>
       </c>
-      <c r="W24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="U24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
         <v>38030</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -2916,7 +2772,7 @@
         <v>1470.19274</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I25">
         <v>73</v>
@@ -2925,51 +2781,45 @@
         <v>1.5</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>34.841298500000001</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>34.013233849999999</v>
       </c>
       <c r="M25">
-        <v>34.841298500000001</v>
+        <v>0.91113618100000004</v>
       </c>
       <c r="N25">
-        <v>34.013233849999999</v>
+        <v>0.395883706</v>
       </c>
       <c r="O25">
-        <v>0.91113618100000004</v>
+        <v>3.37</v>
       </c>
       <c r="P25">
-        <v>0.395883706</v>
+        <v>49.570151699999997</v>
       </c>
       <c r="Q25">
-        <v>3.37</v>
+        <v>0.06</v>
       </c>
       <c r="R25">
-        <v>49.570151699999997</v>
+        <v>0.95</v>
       </c>
       <c r="S25">
-        <v>0.06</v>
+        <v>79.28</v>
       </c>
       <c r="T25">
-        <v>0.95</v>
-      </c>
-      <c r="U25">
-        <v>79.28</v>
-      </c>
-      <c r="V25">
         <v>4.5432338520000002</v>
       </c>
-      <c r="W25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="U25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
         <v>38032</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>10.199999999999999</v>
@@ -2987,7 +2837,7 @@
         <v>1456.351079</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I26">
         <v>22</v>
@@ -2996,51 +2846,45 @@
         <v>1.5</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>36.124815179999999</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>34.898883230000003</v>
       </c>
       <c r="M26">
-        <v>36.124815179999999</v>
+        <v>0.93545869400000004</v>
       </c>
       <c r="N26">
-        <v>34.898883230000003</v>
+        <v>0.48363083299999998</v>
       </c>
       <c r="O26">
-        <v>0.93545869400000004</v>
+        <v>3.37</v>
       </c>
       <c r="P26">
-        <v>0.48363083299999998</v>
+        <v>32.499499970000002</v>
       </c>
       <c r="Q26">
-        <v>3.37</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="R26">
-        <v>32.499499970000002</v>
+        <v>0.95</v>
       </c>
       <c r="S26">
-        <v>0.10199999999999999</v>
+        <v>108.11</v>
       </c>
       <c r="T26">
-        <v>0.95</v>
-      </c>
-      <c r="U26">
-        <v>108.11</v>
-      </c>
-      <c r="V26">
         <v>5.4288832310000004</v>
       </c>
-      <c r="W26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="U26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
         <v>38034</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>6.4</v>
@@ -3058,7 +2902,7 @@
         <v>1412.4806610000001</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I27">
         <v>75</v>
@@ -3067,51 +2911,45 @@
         <v>1.5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>31.975799259999999</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>31.779431070000001</v>
       </c>
       <c r="M27">
-        <v>31.975799259999999</v>
+        <v>0.93754779700000002</v>
       </c>
       <c r="N27">
-        <v>31.779431070000001</v>
+        <v>0.49195035599999998</v>
       </c>
       <c r="O27">
-        <v>0.93754779700000002</v>
+        <v>3.37</v>
       </c>
       <c r="P27">
-        <v>0.49195035599999998</v>
+        <v>71.804248670000007</v>
       </c>
       <c r="Q27">
-        <v>3.37</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="R27">
-        <v>71.804248670000007</v>
+        <v>0.95</v>
       </c>
       <c r="S27">
-        <v>6.4000000000000001E-2</v>
+        <v>90.8</v>
       </c>
       <c r="T27">
-        <v>0.95</v>
-      </c>
-      <c r="U27">
-        <v>90.8</v>
-      </c>
-      <c r="V27">
         <v>2.3094310669999998</v>
       </c>
-      <c r="W27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="U27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
         <v>38036</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>5.5</v>
@@ -3129,7 +2967,7 @@
         <v>1497.514167</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I28">
         <v>74</v>
@@ -3138,51 +2976,45 @@
         <v>1.5</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>33.790543130000003</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>33.06525508</v>
       </c>
       <c r="M28">
-        <v>33.790543130000003</v>
+        <v>0.92372120099999999</v>
       </c>
       <c r="N28">
-        <v>33.06525508</v>
+        <v>0.52925195599999997</v>
       </c>
       <c r="O28">
-        <v>0.92372120099999999</v>
+        <v>3.37</v>
       </c>
       <c r="P28">
-        <v>0.52925195599999997</v>
+        <v>49.116884679999998</v>
       </c>
       <c r="Q28">
-        <v>3.37</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R28">
-        <v>49.116884679999998</v>
+        <v>0.95</v>
       </c>
       <c r="S28">
-        <v>5.5E-2</v>
+        <v>84.47</v>
       </c>
       <c r="T28">
-        <v>0.95</v>
-      </c>
-      <c r="U28">
-        <v>84.47</v>
-      </c>
-      <c r="V28">
         <v>4.2252550759999998</v>
       </c>
-      <c r="W28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="U28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
         <v>38040</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -3200,7 +3032,7 @@
         <v>1490.6796650000001</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I29">
         <v>49</v>
@@ -3209,51 +3041,45 @@
         <v>1.5</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>34.897366990000002</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>33.934272440000001</v>
       </c>
       <c r="M29">
-        <v>34.897366990000002</v>
+        <v>0.92003971100000004</v>
       </c>
       <c r="N29">
-        <v>33.934272440000001</v>
+        <v>0.47981180099999998</v>
       </c>
       <c r="O29">
-        <v>0.92003971100000004</v>
+        <v>3.37</v>
       </c>
       <c r="P29">
-        <v>0.47981180099999998</v>
+        <v>13.174466130000001</v>
       </c>
       <c r="Q29">
-        <v>3.37</v>
+        <v>0.05</v>
       </c>
       <c r="R29">
-        <v>13.174466130000001</v>
+        <v>0.95</v>
       </c>
       <c r="S29">
-        <v>0.05</v>
+        <v>94.61</v>
       </c>
       <c r="T29">
-        <v>0.95</v>
-      </c>
-      <c r="U29">
-        <v>94.61</v>
-      </c>
-      <c r="V29">
         <v>4.8342724380000002</v>
       </c>
-      <c r="W29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="U29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>38044</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>6.75</v>
@@ -3271,7 +3097,7 @@
         <v>1456.351079</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I30">
         <v>45</v>
@@ -3280,51 +3106,45 @@
         <v>1.5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>35.619632520000003</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>34.779733909999997</v>
       </c>
       <c r="M30">
-        <v>35.619632520000003</v>
+        <v>0.92984879799999998</v>
       </c>
       <c r="N30">
-        <v>34.779733909999997</v>
+        <v>0.53241518600000004</v>
       </c>
       <c r="O30">
-        <v>0.92984879799999998</v>
+        <v>3.37</v>
       </c>
       <c r="P30">
-        <v>0.53241518600000004</v>
+        <v>28.248280959999999</v>
       </c>
       <c r="Q30">
-        <v>3.37</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="R30">
-        <v>28.248280959999999</v>
+        <v>0.95</v>
       </c>
       <c r="S30">
-        <v>6.7500000000000004E-2</v>
+        <v>74.97</v>
       </c>
       <c r="T30">
-        <v>0.95</v>
-      </c>
-      <c r="U30">
-        <v>74.97</v>
-      </c>
-      <c r="V30">
         <v>4.6297339080000004</v>
       </c>
-      <c r="W30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="U30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>38050</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>13</v>
@@ -3342,7 +3162,7 @@
         <v>1387.600361</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I31">
         <v>25</v>
@@ -3351,51 +3171,45 @@
         <v>1.5</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>36.997615230000001</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>35.759680959999997</v>
       </c>
       <c r="M31">
-        <v>36.997615230000001</v>
+        <v>0.92362385899999999</v>
       </c>
       <c r="N31">
-        <v>35.759680959999997</v>
+        <v>0.404060908</v>
       </c>
       <c r="O31">
-        <v>0.92362385899999999</v>
+        <v>3.37</v>
       </c>
       <c r="P31">
-        <v>0.404060908</v>
+        <v>23.847921199999998</v>
       </c>
       <c r="Q31">
-        <v>3.37</v>
+        <v>0.13</v>
       </c>
       <c r="R31">
-        <v>23.847921199999998</v>
+        <v>0.95</v>
       </c>
       <c r="S31">
-        <v>0.13</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="T31">
-        <v>0.95</v>
-      </c>
-      <c r="U31">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="V31">
         <v>5.5296809570000001</v>
       </c>
-      <c r="W31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="U31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
         <v>38052</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -3413,7 +3227,7 @@
         <v>1357.9272779999999</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I32">
         <v>46</v>
@@ -3422,51 +3236,45 @@
         <v>1.5</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>33.826065120000003</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>33.443765720000002</v>
       </c>
       <c r="M32">
-        <v>33.826065120000003</v>
+        <v>0.922720714</v>
       </c>
       <c r="N32">
-        <v>33.443765720000002</v>
+        <v>0.41194804699999998</v>
       </c>
       <c r="O32">
-        <v>0.922720714</v>
+        <v>3.37</v>
       </c>
       <c r="P32">
-        <v>0.41194804699999998</v>
+        <v>57.727850650000001</v>
       </c>
       <c r="Q32">
-        <v>3.37</v>
+        <v>0.06</v>
       </c>
       <c r="R32">
-        <v>57.727850650000001</v>
+        <v>0.95</v>
       </c>
       <c r="S32">
-        <v>0.06</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="T32">
-        <v>0.95</v>
-      </c>
-      <c r="U32">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="V32">
         <v>3.2137657220000002</v>
       </c>
-      <c r="W32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="U32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="2">
         <v>38060</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>10.199999999999999</v>
@@ -3484,7 +3292,7 @@
         <v>1415.6637639999999</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I33">
         <v>17</v>
@@ -3493,51 +3301,45 @@
         <v>1.5</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>33.403595610000004</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>32.942728979999998</v>
       </c>
       <c r="M33">
-        <v>33.403595610000004</v>
+        <v>0.94282698399999998</v>
       </c>
       <c r="N33">
-        <v>32.942728979999998</v>
+        <v>0.51982738500000003</v>
       </c>
       <c r="O33">
-        <v>0.94282698399999998</v>
+        <v>3.37</v>
       </c>
       <c r="P33">
-        <v>0.51982738500000003</v>
+        <v>46.212624470000002</v>
       </c>
       <c r="Q33">
-        <v>3.37</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="R33">
-        <v>46.212624470000002</v>
+        <v>0.95</v>
       </c>
       <c r="S33">
-        <v>0.10199999999999999</v>
+        <v>130.55000000000001</v>
       </c>
       <c r="T33">
-        <v>0.95</v>
-      </c>
-      <c r="U33">
-        <v>130.55000000000001</v>
-      </c>
-      <c r="V33">
         <v>3.4627289810000002</v>
       </c>
-      <c r="W33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="U33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="2">
         <v>38076</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34">
         <v>8.57</v>
@@ -3555,7 +3357,7 @@
         <v>1498.074337</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I34">
         <v>32</v>
@@ -3564,51 +3366,45 @@
         <v>1.5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>34.896448149999998</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>34.280435560000001</v>
       </c>
       <c r="M34">
-        <v>34.896448149999998</v>
+        <v>0.93383686799999999</v>
       </c>
       <c r="N34">
-        <v>34.280435560000001</v>
+        <v>0.55940164699999995</v>
       </c>
       <c r="O34">
-        <v>0.93383686799999999</v>
+        <v>3.37</v>
       </c>
       <c r="P34">
-        <v>0.55940164699999995</v>
+        <v>53.18522557</v>
       </c>
       <c r="Q34">
-        <v>3.37</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="R34">
-        <v>53.18522557</v>
+        <v>0.95</v>
       </c>
       <c r="S34">
-        <v>8.5699999999999998E-2</v>
+        <v>101.87</v>
       </c>
       <c r="T34">
-        <v>0.95</v>
-      </c>
-      <c r="U34">
-        <v>101.87</v>
-      </c>
-      <c r="V34">
         <v>4.020435559</v>
       </c>
-      <c r="W34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="U34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="2">
         <v>38080</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>4.8499999999999996</v>
@@ -3626,7 +3422,7 @@
         <v>1498.24074</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I35">
         <v>33</v>
@@ -3635,51 +3431,45 @@
         <v>1.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>34.317787420000002</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>33.837988459999998</v>
       </c>
       <c r="M35">
-        <v>34.317787420000002</v>
+        <v>0.88898094900000002</v>
       </c>
       <c r="N35">
-        <v>33.837988459999998</v>
+        <v>0.40767837899999998</v>
       </c>
       <c r="O35">
-        <v>0.88898094900000002</v>
+        <v>3.37</v>
       </c>
       <c r="P35">
-        <v>0.40767837899999998</v>
+        <v>25.77582743</v>
       </c>
       <c r="Q35">
-        <v>3.37</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="R35">
-        <v>25.77582743</v>
+        <v>0.95</v>
       </c>
       <c r="S35">
-        <v>4.8499999999999995E-2</v>
+        <v>55.32</v>
       </c>
       <c r="T35">
-        <v>0.95</v>
-      </c>
-      <c r="U35">
-        <v>55.32</v>
-      </c>
-      <c r="V35">
         <v>3.5779884590000002</v>
       </c>
-      <c r="W35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="U35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="2">
         <v>38082</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>4.43</v>
@@ -3697,7 +3487,7 @@
         <v>1497.514167</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I36">
         <v>31</v>
@@ -3706,51 +3496,45 @@
         <v>1.5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>33.307262610000002</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>33.028470280000001</v>
       </c>
       <c r="M36">
-        <v>33.307262610000002</v>
+        <v>0.93833384600000003</v>
       </c>
       <c r="N36">
-        <v>33.028470280000001</v>
+        <v>0.42609554599999999</v>
       </c>
       <c r="O36">
-        <v>0.93833384600000003</v>
+        <v>3.37</v>
       </c>
       <c r="P36">
-        <v>0.42609554599999999</v>
+        <v>35.939728539999997</v>
       </c>
       <c r="Q36">
-        <v>3.37</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="R36">
-        <v>35.939728539999997</v>
+        <v>0.95</v>
       </c>
       <c r="S36">
-        <v>4.4299999999999999E-2</v>
+        <v>62.27</v>
       </c>
       <c r="T36">
-        <v>0.95</v>
-      </c>
-      <c r="U36">
-        <v>62.27</v>
-      </c>
-      <c r="V36">
         <v>2.7684702780000001</v>
       </c>
-      <c r="W36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="U36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="2">
         <v>38088</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>4.8</v>
@@ -3768,7 +3552,7 @@
         <v>1180.6107040000002</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I37">
         <v>42</v>
@@ -3777,51 +3561,45 @@
         <v>1.5</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>33.903620549999999</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>33.747098399999999</v>
       </c>
       <c r="M37">
-        <v>33.903620549999999</v>
+        <v>0.85994282600000005</v>
       </c>
       <c r="N37">
-        <v>33.747098399999999</v>
+        <v>0.475274945</v>
       </c>
       <c r="O37">
-        <v>0.85994282600000005</v>
+        <v>3.37</v>
       </c>
       <c r="P37">
-        <v>0.475274945</v>
+        <v>38.067044719999998</v>
       </c>
       <c r="Q37">
-        <v>3.37</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="R37">
-        <v>38.067044719999998</v>
+        <v>0.95</v>
       </c>
       <c r="S37">
-        <v>4.8000000000000001E-2</v>
+        <v>109.72</v>
       </c>
       <c r="T37">
-        <v>0.95</v>
-      </c>
-      <c r="U37">
-        <v>109.72</v>
-      </c>
-      <c r="V37">
         <v>2.1470983979999998</v>
       </c>
-      <c r="W37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="U37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="2">
         <v>38090</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>6.4</v>
@@ -3839,7 +3617,7 @@
         <v>1266.5002136200001</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I38">
         <v>43</v>
@@ -3848,51 +3626,45 @@
         <v>1.5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>34.689146549999997</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>34.414051100000002</v>
       </c>
       <c r="M38">
-        <v>34.689146549999997</v>
+        <v>0.94303725900000002</v>
       </c>
       <c r="N38">
-        <v>34.414051100000002</v>
+        <v>0.48855410500000002</v>
       </c>
       <c r="O38">
-        <v>0.94303725900000002</v>
+        <v>3.37</v>
       </c>
       <c r="P38">
-        <v>0.48855410500000002</v>
+        <v>41.31788452</v>
       </c>
       <c r="Q38">
-        <v>3.37</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="R38">
-        <v>41.31788452</v>
+        <v>0.95</v>
       </c>
       <c r="S38">
-        <v>6.4000000000000001E-2</v>
+        <v>132.97999999999999</v>
       </c>
       <c r="T38">
-        <v>0.95</v>
-      </c>
-      <c r="U38">
-        <v>132.97999999999999</v>
-      </c>
-      <c r="V38">
         <v>2.8140510989999998</v>
       </c>
-      <c r="W38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="U38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="2">
         <v>38092</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39">
         <v>4.43</v>
@@ -3910,7 +3682,7 @@
         <v>1445.7651800000001</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I39">
         <v>47</v>
@@ -3919,51 +3691,45 @@
         <v>1.5</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>34.349274450000003</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>34.129225839999997</v>
       </c>
       <c r="M39">
-        <v>34.349274450000003</v>
+        <v>0.92271362599999995</v>
       </c>
       <c r="N39">
-        <v>34.129225839999997</v>
+        <v>0.39695644800000002</v>
       </c>
       <c r="O39">
-        <v>0.92271362599999995</v>
+        <v>3.37</v>
       </c>
       <c r="P39">
-        <v>0.39695644800000002</v>
+        <v>43.347501289999997</v>
       </c>
       <c r="Q39">
-        <v>3.37</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="R39">
-        <v>43.347501289999997</v>
+        <v>0.95</v>
       </c>
       <c r="S39">
-        <v>4.4299999999999999E-2</v>
+        <v>61.61</v>
       </c>
       <c r="T39">
-        <v>0.95</v>
-      </c>
-      <c r="U39">
-        <v>61.61</v>
-      </c>
-      <c r="V39">
         <v>2.5292258429999999</v>
       </c>
-      <c r="W39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="U39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="2">
         <v>38094</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -3981,7 +3747,7 @@
         <v>1409.4613979999999</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I40">
         <v>66</v>
@@ -3990,51 +3756,45 @@
         <v>1.5</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>37.620535500000003</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>36.75371595</v>
       </c>
       <c r="M40">
-        <v>37.620535500000003</v>
+        <v>0.91565754700000002</v>
       </c>
       <c r="N40">
-        <v>36.75371595</v>
+        <v>0.53145186099999997</v>
       </c>
       <c r="O40">
-        <v>0.91565754700000002</v>
+        <v>3.37</v>
       </c>
       <c r="P40">
-        <v>0.53145186099999997</v>
+        <v>45.420431110000003</v>
       </c>
       <c r="Q40">
-        <v>3.37</v>
+        <v>0.06</v>
       </c>
       <c r="R40">
-        <v>45.420431110000003</v>
+        <v>0.95</v>
       </c>
       <c r="S40">
-        <v>0.06</v>
+        <v>94.49</v>
       </c>
       <c r="T40">
-        <v>0.95</v>
-      </c>
-      <c r="U40">
-        <v>94.49</v>
-      </c>
-      <c r="V40">
         <v>4.8437159489999999</v>
       </c>
-      <c r="W40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="U40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="2">
         <v>38100</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>8.5</v>
@@ -4052,7 +3812,7 @@
         <v>1381.748167</v>
       </c>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4061,43 +3821,37 @@
         <v>1.5</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>32.296250190000002</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>31.917761500000001</v>
       </c>
       <c r="M41">
-        <v>32.296250190000002</v>
+        <v>0.95194621800000001</v>
       </c>
       <c r="N41">
-        <v>31.917761500000001</v>
+        <v>0.52731341499999995</v>
       </c>
       <c r="O41">
-        <v>0.95194621800000001</v>
+        <v>3.37</v>
       </c>
       <c r="P41">
-        <v>0.52731341499999995</v>
+        <v>42.289257159999998</v>
       </c>
       <c r="Q41">
-        <v>3.37</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R41">
-        <v>42.289257159999998</v>
+        <v>0.95</v>
       </c>
       <c r="S41">
-        <v>8.5000000000000006E-2</v>
+        <v>112.34</v>
       </c>
       <c r="T41">
-        <v>0.95</v>
-      </c>
-      <c r="U41">
-        <v>112.34</v>
-      </c>
-      <c r="V41">
         <v>3.1177615009999999</v>
       </c>
-      <c r="W41" t="s">
-        <v>91</v>
+      <c r="U41" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
